--- a/biology/Zoologie/Aristonectinae/Aristonectinae.xlsx
+++ b/biology/Zoologie/Aristonectinae/Aristonectinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aristonectinae forment une sous-famille éteinte de plésiosaures de la famille des Elasmosauridae. Il comprend les plésiosaures du Crétacé supérieur Aristonectes et Kaiwhekea, traditionnellement regroupés avec Tatenectes et Kimmerosaurus du Jurassique supérieur dans la famille des Aristonectidae. Ils se distinguent par le fait qu'ils ont un crâne très élargi par rapport à la largeur du corps, un cou moyennement court et plus de 25 dents dans les maxillaires[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aristonectinae forment une sous-famille éteinte de plésiosaures de la famille des Elasmosauridae. Il comprend les plésiosaures du Crétacé supérieur Aristonectes et Kaiwhekea, traditionnellement regroupés avec Tatenectes et Kimmerosaurus du Jurassique supérieur dans la famille des Aristonectidae. Ils se distinguent par le fait qu'ils ont un crâne très élargi par rapport à la largeur du corps, un cou moyennement court et plus de 25 dents dans les maxillaires. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Rodrigo A. Otero, Sergio Soto-Acuña et David Rubilar-Rogers, « A postcranial skeleton of an elasmosaurid plesiosaur from the Maastrichtian of central Chile, with comments on the affinities of Late Cretaceous plesiosauroids from the Weddellian Biogeographic Province », Cretaceous Research, Elsevier, vol. 37,‎ octobre 2012, p. 89-99 (ISSN 0195-6671 et 1095-998X, OCLC 36935308, DOI 10.1016/J.CRETRES.2012.03.010, lire en ligne)</t>
         </is>
